--- a/automation_tasks/monitoring_data/system_monitoring.xlsx
+++ b/automation_tasks/monitoring_data/system_monitoring.xlsx
@@ -510,16 +510,16 @@
         <v>3044</v>
       </c>
       <c r="D2" t="n">
-        <v>1516</v>
+        <v>1954</v>
       </c>
       <c r="E2" t="n">
-        <v>1528</v>
+        <v>1090</v>
       </c>
       <c r="F2" t="n">
         <v>3072</v>
       </c>
       <c r="G2" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -538,19 +538,19 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="2" t="n">
-        <v>44980.75290189526</v>
+        <v>44984.33309143538</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>1528</v>
+        <v>1090</v>
       </c>
       <c r="K3" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -564,19 +564,19 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" s="2" t="n">
-        <v>44980.75291401755</v>
+        <v>44984.33310373287</v>
       </c>
       <c r="I4" t="n">
-        <v>48.5</v>
+        <v>36.2</v>
       </c>
       <c r="J4" t="n">
-        <v>1514</v>
+        <v>1090</v>
       </c>
       <c r="K4" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -590,19 +590,19 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" s="2" t="n">
-        <v>44980.75292595288</v>
+        <v>44984.33311530698</v>
       </c>
       <c r="I5" t="n">
-        <v>16.7</v>
+        <v>32.8</v>
       </c>
       <c r="J5" t="n">
-        <v>1516</v>
+        <v>1090</v>
       </c>
       <c r="K5" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -616,19 +616,19 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" s="2" t="n">
-        <v>44980.75293758886</v>
+        <v>44984.33312724271</v>
       </c>
       <c r="I6" t="n">
-        <v>4.6</v>
+        <v>6.1</v>
       </c>
       <c r="J6" t="n">
-        <v>1514</v>
+        <v>1090</v>
       </c>
       <c r="K6" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -642,19 +642,19 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" s="2" t="n">
-        <v>44980.7529492789</v>
+        <v>44984.33313881682</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>32.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1514</v>
+        <v>1090</v>
       </c>
       <c r="K7" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -668,19 +668,19 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" s="2" t="n">
-        <v>44980.75296085577</v>
+        <v>44984.33315039091</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7</v>
+        <v>10.9</v>
       </c>
       <c r="J8" t="n">
-        <v>1512</v>
+        <v>1090</v>
       </c>
       <c r="K8" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -694,19 +694,19 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" s="2" t="n">
-        <v>44980.75297243044</v>
+        <v>44984.33316196507</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>7.8</v>
       </c>
       <c r="J9" t="n">
-        <v>1500</v>
+        <v>1090</v>
       </c>
       <c r="K9" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -720,19 +720,19 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" s="2" t="n">
-        <v>44980.75298400519</v>
+        <v>44984.33317353918</v>
       </c>
       <c r="I10" t="n">
-        <v>7.8</v>
+        <v>36.9</v>
       </c>
       <c r="J10" t="n">
-        <v>1500</v>
+        <v>1091</v>
       </c>
       <c r="K10" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -746,19 +746,19 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" s="2" t="n">
-        <v>44980.7529955844</v>
+        <v>44984.33318529408</v>
       </c>
       <c r="I11" t="n">
         <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1500</v>
+        <v>1091</v>
       </c>
       <c r="K11" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -772,19 +772,19 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" s="2" t="n">
-        <v>44980.75300733612</v>
+        <v>44984.33319686823</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>53</v>
       </c>
       <c r="J12" t="n">
-        <v>1500</v>
+        <v>1093</v>
       </c>
       <c r="K12" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -798,19 +798,19 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" s="2" t="n">
-        <v>44980.75301891057</v>
+        <v>44984.33320880403</v>
       </c>
       <c r="I13" t="n">
-        <v>6.2</v>
+        <v>67.2</v>
       </c>
       <c r="J13" t="n">
-        <v>1497</v>
+        <v>1096</v>
       </c>
       <c r="K13" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -824,19 +824,19 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" s="2" t="n">
-        <v>44980.75303065874</v>
+        <v>44984.33322073981</v>
       </c>
       <c r="I14" t="n">
-        <v>1.6</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>1497</v>
+        <v>1126</v>
       </c>
       <c r="K14" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -850,19 +850,19 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" s="2" t="n">
-        <v>44980.75304223881</v>
+        <v>44984.33323249476</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>1497</v>
+        <v>1127</v>
       </c>
       <c r="K15" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -876,19 +876,19 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" s="2" t="n">
-        <v>44980.75305399359</v>
+        <v>44984.33324479226</v>
       </c>
       <c r="I16" t="n">
-        <v>6.2</v>
+        <v>55.9</v>
       </c>
       <c r="J16" t="n">
-        <v>1497</v>
+        <v>1133</v>
       </c>
       <c r="K16" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -902,19 +902,19 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" s="2" t="n">
-        <v>44980.75306574685</v>
+        <v>44984.33325654719</v>
       </c>
       <c r="I17" t="n">
-        <v>6.2</v>
+        <v>74.3</v>
       </c>
       <c r="J17" t="n">
-        <v>1497</v>
+        <v>1130</v>
       </c>
       <c r="K17" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" s="2" t="n">
-        <v>44980.75307749998</v>
+        <v>44984.3332681213</v>
       </c>
       <c r="I18" t="n">
-        <v>4.6</v>
+        <v>94</v>
       </c>
       <c r="J18" t="n">
-        <v>1497</v>
+        <v>1137</v>
       </c>
       <c r="K18" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" s="2" t="n">
-        <v>44980.75308908481</v>
+        <v>44984.33327969541</v>
       </c>
       <c r="I19" t="n">
-        <v>4.6</v>
+        <v>32.8</v>
       </c>
       <c r="J19" t="n">
-        <v>1497</v>
+        <v>1137</v>
       </c>
       <c r="K19" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -980,19 +980,19 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" s="2" t="n">
-        <v>44980.75310083014</v>
+        <v>44984.33329126951</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>36.9</v>
       </c>
       <c r="J20" t="n">
-        <v>1497</v>
+        <v>1131</v>
       </c>
       <c r="K20" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -1006,19 +1006,19 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" s="2" t="n">
-        <v>44980.75311245159</v>
+        <v>44984.3333032053</v>
       </c>
       <c r="I21" t="n">
-        <v>7.8</v>
+        <v>35.8</v>
       </c>
       <c r="J21" t="n">
-        <v>1496</v>
+        <v>1126</v>
       </c>
       <c r="K21" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -1032,19 +1032,19 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" s="2" t="n">
-        <v>44980.75312416507</v>
+        <v>44984.33331496024</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>73.8</v>
       </c>
       <c r="J22" t="n">
-        <v>1496</v>
+        <v>1141</v>
       </c>
       <c r="K22" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
@@ -1058,19 +1058,19 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" s="2" t="n">
-        <v>44980.75313591074</v>
+        <v>44984.33332834281</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>72</v>
       </c>
       <c r="J23" t="n">
-        <v>1496</v>
+        <v>1137</v>
       </c>
       <c r="K23" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
@@ -1084,19 +1084,19 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" s="2" t="n">
-        <v>44980.75314748961</v>
+        <v>44984.33334027854</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>48.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1496</v>
+        <v>1148</v>
       </c>
       <c r="K24" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -1110,19 +1110,19 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" s="2" t="n">
-        <v>44980.75315924243</v>
+        <v>44984.3333518527</v>
       </c>
       <c r="I25" t="n">
-        <v>6.2</v>
+        <v>33.8</v>
       </c>
       <c r="J25" t="n">
-        <v>1496</v>
+        <v>1148</v>
       </c>
       <c r="K25" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -1136,19 +1136,19 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" s="2" t="n">
-        <v>44980.75317108473</v>
+        <v>44984.33336360766</v>
       </c>
       <c r="I26" t="n">
-        <v>6.1</v>
+        <v>24.6</v>
       </c>
       <c r="J26" t="n">
-        <v>1496</v>
+        <v>1141</v>
       </c>
       <c r="K26" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -1162,19 +1162,19 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" s="2" t="n">
-        <v>44980.75318281056</v>
+        <v>44984.33337518173</v>
       </c>
       <c r="I27" t="n">
-        <v>7.8</v>
+        <v>37.9</v>
       </c>
       <c r="J27" t="n">
-        <v>1496</v>
+        <v>1142</v>
       </c>
       <c r="K27" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
@@ -1188,19 +1188,19 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" s="2" t="n">
-        <v>44980.75319453511</v>
+        <v>44984.33338675585</v>
       </c>
       <c r="I28" t="n">
-        <v>6.2</v>
+        <v>44.6</v>
       </c>
       <c r="J28" t="n">
-        <v>1496</v>
+        <v>1143</v>
       </c>
       <c r="K28" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
@@ -1214,19 +1214,19 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" s="2" t="n">
-        <v>44980.75320624613</v>
+        <v>44984.3333985108</v>
       </c>
       <c r="I29" t="n">
-        <v>7.7</v>
+        <v>72.7</v>
       </c>
       <c r="J29" t="n">
-        <v>1496</v>
+        <v>1142</v>
       </c>
       <c r="K29" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1240,19 +1240,19 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" s="2" t="n">
-        <v>44980.7532178457</v>
+        <v>44984.3334100849</v>
       </c>
       <c r="I30" t="n">
-        <v>4.7</v>
+        <v>32.8</v>
       </c>
       <c r="J30" t="n">
-        <v>1496</v>
+        <v>1134</v>
       </c>
       <c r="K30" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
@@ -1266,19 +1266,19 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" s="2" t="n">
-        <v>44980.75322959934</v>
+        <v>44984.33342310577</v>
       </c>
       <c r="I31" t="n">
-        <v>1.5</v>
+        <v>28.8</v>
       </c>
       <c r="J31" t="n">
-        <v>1496</v>
+        <v>1135</v>
       </c>
       <c r="K31" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
@@ -1292,19 +1292,19 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" s="2" t="n">
-        <v>44980.75324122419</v>
+        <v>44984.33343467986</v>
       </c>
       <c r="I32" t="n">
-        <v>4.7</v>
+        <v>59.1</v>
       </c>
       <c r="J32" t="n">
-        <v>1496</v>
+        <v>1143</v>
       </c>
       <c r="K32" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
@@ -1318,19 +1318,19 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" s="2" t="n">
-        <v>44980.75325292093</v>
+        <v>44984.33344625395</v>
       </c>
       <c r="I33" t="n">
-        <v>1.6</v>
+        <v>32.8</v>
       </c>
       <c r="J33" t="n">
-        <v>1496</v>
+        <v>1144</v>
       </c>
       <c r="K33" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -1344,19 +1344,19 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" s="2" t="n">
-        <v>44980.75326450201</v>
+        <v>44984.33345782807</v>
       </c>
       <c r="I34" t="n">
-        <v>4.6</v>
+        <v>7.8</v>
       </c>
       <c r="J34" t="n">
-        <v>1496</v>
+        <v>1133</v>
       </c>
       <c r="K34" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
@@ -1370,19 +1370,19 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" s="2" t="n">
-        <v>44980.75327625129</v>
+        <v>44984.33346940218</v>
       </c>
       <c r="I35" t="n">
-        <v>4.7</v>
+        <v>25</v>
       </c>
       <c r="J35" t="n">
-        <v>1496</v>
+        <v>1131</v>
       </c>
       <c r="K35" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -1396,19 +1396,19 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" s="2" t="n">
-        <v>44980.75328782664</v>
+        <v>44984.33348097625</v>
       </c>
       <c r="I36" t="n">
-        <v>6.2</v>
+        <v>17.2</v>
       </c>
       <c r="J36" t="n">
-        <v>1496</v>
+        <v>1132</v>
       </c>
       <c r="K36" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
@@ -1422,19 +1422,19 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" s="2" t="n">
-        <v>44980.75329957238</v>
+        <v>44984.3334925504</v>
       </c>
       <c r="I37" t="n">
-        <v>6.2</v>
+        <v>62.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1496</v>
+        <v>1133</v>
       </c>
       <c r="K37" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
@@ -1448,19 +1448,19 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" s="2" t="n">
-        <v>44980.75331115757</v>
+        <v>44984.33350810308</v>
       </c>
       <c r="I38" t="n">
-        <v>6.2</v>
+        <v>100</v>
       </c>
       <c r="J38" t="n">
-        <v>1496</v>
+        <v>1138</v>
       </c>
       <c r="K38" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
@@ -1474,19 +1474,19 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" s="2" t="n">
-        <v>44980.75332291167</v>
+        <v>44984.33352003885</v>
       </c>
       <c r="I39" t="n">
-        <v>4.6</v>
+        <v>40.9</v>
       </c>
       <c r="J39" t="n">
-        <v>1496</v>
+        <v>1142</v>
       </c>
       <c r="K39" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
@@ -1500,19 +1500,19 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" s="2" t="n">
-        <v>44980.75333465485</v>
+        <v>44984.33353161295</v>
       </c>
       <c r="I40" t="n">
-        <v>3.1</v>
+        <v>35.9</v>
       </c>
       <c r="J40" t="n">
-        <v>1496</v>
+        <v>1141</v>
       </c>
       <c r="K40" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
@@ -1526,19 +1526,19 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" s="2" t="n">
-        <v>44980.75334623537</v>
+        <v>44984.33354318708</v>
       </c>
       <c r="I41" t="n">
-        <v>6.2</v>
+        <v>34.4</v>
       </c>
       <c r="J41" t="n">
-        <v>1496</v>
+        <v>1138</v>
       </c>
       <c r="K41" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
@@ -1552,19 +1552,19 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" s="2" t="n">
-        <v>44980.75335786166</v>
+        <v>44984.33355476118</v>
       </c>
       <c r="I42" t="n">
-        <v>7.7</v>
+        <v>41.5</v>
       </c>
       <c r="J42" t="n">
-        <v>1496</v>
+        <v>1138</v>
       </c>
       <c r="K42" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
@@ -1578,19 +1578,19 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" s="2" t="n">
-        <v>44980.75336957085</v>
+        <v>44984.33356651614</v>
       </c>
       <c r="I43" t="n">
-        <v>4.6</v>
+        <v>46.2</v>
       </c>
       <c r="J43" t="n">
-        <v>1496</v>
+        <v>1137</v>
       </c>
       <c r="K43" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
@@ -1604,19 +1604,19 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" s="2" t="n">
-        <v>44980.75338132539</v>
+        <v>44984.33357863279</v>
       </c>
       <c r="I44" t="n">
-        <v>3.1</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>1496</v>
+        <v>1135</v>
       </c>
       <c r="K44" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
@@ -1630,19 +1630,19 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" s="2" t="n">
-        <v>44980.75339289948</v>
+        <v>44984.33359038773</v>
       </c>
       <c r="I45" t="n">
-        <v>4.7</v>
+        <v>53</v>
       </c>
       <c r="J45" t="n">
-        <v>1496</v>
+        <v>1138</v>
       </c>
       <c r="K45" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46">
@@ -1656,19 +1656,19 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" s="2" t="n">
-        <v>44980.75340447476</v>
+        <v>44984.33360196183</v>
       </c>
       <c r="I46" t="n">
-        <v>4.7</v>
+        <v>9.1</v>
       </c>
       <c r="J46" t="n">
-        <v>1496</v>
+        <v>1126</v>
       </c>
       <c r="K46" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
@@ -1682,19 +1682,19 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" s="2" t="n">
-        <v>44980.75341622238</v>
+        <v>44984.33361353593</v>
       </c>
       <c r="I47" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1492</v>
+        <v>1126</v>
       </c>
       <c r="K47" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
@@ -1708,19 +1708,19 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" s="2" t="n">
-        <v>44980.75342780573</v>
+        <v>44984.33362601427</v>
       </c>
       <c r="I48" t="n">
-        <v>6.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>1492</v>
+        <v>1138</v>
       </c>
       <c r="K48" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49">
@@ -1734,19 +1734,19 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" s="2" t="n">
-        <v>44980.75343955346</v>
+        <v>44984.33364247122</v>
       </c>
       <c r="I49" t="n">
-        <v>3.1</v>
+        <v>91.2</v>
       </c>
       <c r="J49" t="n">
-        <v>1492</v>
+        <v>1144</v>
       </c>
       <c r="K49" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
@@ -1760,19 +1760,19 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" s="2" t="n">
-        <v>44980.75345113283</v>
+        <v>44984.33365567292</v>
       </c>
       <c r="I50" t="n">
-        <v>6.2</v>
+        <v>100</v>
       </c>
       <c r="J50" t="n">
-        <v>1492</v>
+        <v>1136</v>
       </c>
       <c r="K50" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -1786,19 +1786,19 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" s="2" t="n">
-        <v>44980.75346288562</v>
+        <v>44984.333667247</v>
       </c>
       <c r="I51" t="n">
-        <v>1.5</v>
+        <v>48.5</v>
       </c>
       <c r="J51" t="n">
-        <v>1492</v>
+        <v>1136</v>
       </c>
       <c r="K51" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
@@ -1812,19 +1812,19 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" s="2" t="n">
-        <v>44980.75347451244</v>
+        <v>44984.33367882109</v>
       </c>
       <c r="I52" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1492</v>
+        <v>1136</v>
       </c>
       <c r="K52" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
@@ -1838,19 +1838,19 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" s="2" t="n">
-        <v>44980.75348621947</v>
+        <v>44984.33369039522</v>
       </c>
       <c r="I53" t="n">
-        <v>6.2</v>
+        <v>43.8</v>
       </c>
       <c r="J53" t="n">
-        <v>1492</v>
+        <v>1120</v>
       </c>
       <c r="K53" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
@@ -1864,19 +1864,19 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" s="2" t="n">
-        <v>44980.75349779433</v>
+        <v>44984.33370196931</v>
       </c>
       <c r="I54" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1492</v>
+        <v>1120</v>
       </c>
       <c r="K54" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
@@ -1890,19 +1890,19 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" s="2" t="n">
-        <v>44980.75350953762</v>
+        <v>44984.33371354339</v>
       </c>
       <c r="I55" t="n">
-        <v>4.7</v>
+        <v>9.4</v>
       </c>
       <c r="J55" t="n">
-        <v>1492</v>
+        <v>1122</v>
       </c>
       <c r="K55" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
@@ -1916,19 +1916,19 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" s="2" t="n">
-        <v>44980.75352129181</v>
+        <v>44984.3337251175</v>
       </c>
       <c r="I56" t="n">
         <v>4.6</v>
       </c>
       <c r="J56" t="n">
-        <v>1491</v>
+        <v>1122</v>
       </c>
       <c r="K56" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
@@ -1942,19 +1942,19 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" s="2" t="n">
-        <v>44980.75353304059</v>
+        <v>44984.33373669162</v>
       </c>
       <c r="I57" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1491</v>
+        <v>1122</v>
       </c>
       <c r="K57" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
@@ -1968,19 +1968,19 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" s="2" t="n">
-        <v>44980.75354462791</v>
+        <v>44984.33374826573</v>
       </c>
       <c r="I58" t="n">
-        <v>6.2</v>
+        <v>12.5</v>
       </c>
       <c r="J58" t="n">
-        <v>1491</v>
+        <v>1122</v>
       </c>
       <c r="K58" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
@@ -1994,19 +1994,19 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" s="2" t="n">
-        <v>44980.75355638121</v>
+        <v>44984.33375983981</v>
       </c>
       <c r="I59" t="n">
-        <v>3.1</v>
+        <v>9.4</v>
       </c>
       <c r="J59" t="n">
-        <v>1491</v>
+        <v>1122</v>
       </c>
       <c r="K59" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
@@ -2020,19 +2020,19 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" s="2" t="n">
-        <v>44980.753568129</v>
+        <v>44984.33377141393</v>
       </c>
       <c r="I60" t="n">
-        <v>4.6</v>
+        <v>24.2</v>
       </c>
       <c r="J60" t="n">
-        <v>1491</v>
+        <v>1122</v>
       </c>
       <c r="K60" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
@@ -2046,19 +2046,19 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" s="2" t="n">
-        <v>44980.75357970357</v>
+        <v>44984.33378298805</v>
       </c>
       <c r="I61" t="n">
-        <v>6.2</v>
+        <v>55.4</v>
       </c>
       <c r="J61" t="n">
-        <v>1491</v>
+        <v>1131</v>
       </c>
       <c r="K61" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
@@ -2072,19 +2072,19 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" s="2" t="n">
-        <v>44980.75359145874</v>
+        <v>44984.33379456213</v>
       </c>
       <c r="I62" t="n">
-        <v>4.6</v>
+        <v>56.2</v>
       </c>
       <c r="J62" t="n">
-        <v>1491</v>
+        <v>1134</v>
       </c>
       <c r="K62" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
